--- a/Project Outputs for GD_AirIrDA/GD_AirIrDA.xlsx
+++ b/Project Outputs for GD_AirIrDA/GD_AirIrDA.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="GD_AirIrDA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GD_AirIrDA!$A$1:$E$40</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>Designator</t>
   </si>
@@ -118,146 +121,205 @@
     <t>P1</t>
   </si>
   <si>
+    <t>Q1, Q3</t>
+  </si>
+  <si>
+    <t>2SC1623-L6</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>R1, R2, R6, R10, R11, R13, R22, R23, R24, R25, R26</t>
+  </si>
+  <si>
+    <t>10K 5% 0805</t>
+  </si>
+  <si>
+    <t>R3, R4</t>
+  </si>
+  <si>
+    <t>4.7K 5% 0805</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>10Ohm 5% 0805</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>12K 5% 0805</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>15K 5% 0805</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>27K 5% 0805</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>1 Ohm 5% 0805</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>1k 5% 0805</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>1M 5% 0805</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>470 Ohm 5% 0805</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>0 Ohm 5% 0805</t>
+  </si>
+  <si>
+    <t>RT1</t>
+  </si>
+  <si>
+    <t>MF52 10K 3950K</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>32.768K 3X8mm</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>8MHz HC-49S</t>
+  </si>
+  <si>
+    <t>科天微数码专营店</t>
+  </si>
+  <si>
+    <t>科天微数码专营店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SA812-M6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT24C02BN-SP25-T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN65HVD08D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD1117DT33TR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tan 1206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>330uF/35V 8x12mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K 1% 0805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代理商</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Header 5X1 2.54</t>
-  </si>
-  <si>
-    <t>Q1, Q3</t>
-  </si>
-  <si>
-    <t>2SC1623-L6</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>2SA812-M6</t>
-  </si>
-  <si>
-    <t>R1, R2, R6, R10, R11, R13, R22, R23, R24, R25, R26</t>
-  </si>
-  <si>
-    <t>10K 5% 0805</t>
-  </si>
-  <si>
-    <t>R3, R4</t>
-  </si>
-  <si>
-    <t>4.7K 5% 0805</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>10Ohm 5% 0805</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>12K 5% 0805</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>15K 5% 0805</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>27K 5% 0805</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>1 Ohm 5% 0805</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>1k 5% 0805</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>1M 5% 0805</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>470 Ohm 5% 0805</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>0 Ohm 5% 0805</t>
-  </si>
-  <si>
-    <t>RT1</t>
-  </si>
-  <si>
-    <t>MF52 10K 3950K</t>
-  </si>
-  <si>
-    <t>S1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SW-DIP4 2.54mm</t>
-  </si>
-  <si>
-    <t>U1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STM32F103C8T6TR</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>AT24C02BN-SP25-T</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SN65HVD08D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YK005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U4</t>
-  </si>
-  <si>
-    <t>YK005</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>LD1117DT33TR</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>32.768K 3X8mm</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>8MHz HC-49S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建易控电子</t>
+  </si>
+  <si>
+    <t>科天微数码专营店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市优信电子科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arthyly旗舰店</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +341,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +377,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -317,13 +413,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,8 +450,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,19 +784,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,41 +807,53 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -699,8 +863,11 @@
       <c r="C5" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1">
+      <c r="D5" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -710,8 +877,14 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="21">
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -721,8 +894,11 @@
       <c r="C7" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1">
+      <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="27">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -732,8 +908,14 @@
       <c r="C8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1">
+      <c r="D8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -743,30 +925,39 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1">
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -777,29 +968,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" s="7" customFormat="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1">
+      <c r="D14" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -809,275 +1006,387 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="7" customFormat="1">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="17" customFormat="1">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="21">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="21">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1">
+      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1">
+      <c r="D21" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1">
-      <c r="A23" s="2" t="s">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1">
-      <c r="A25" s="2" t="s">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1">
+      <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1">
-      <c r="A26" s="2" t="s">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1">
+      <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1">
-      <c r="A27" s="2" t="s">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="4" customFormat="1">
+      <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1">
-      <c r="A28" s="2" t="s">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1">
+      <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1">
+      <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="7" customFormat="1">
+      <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1">
-      <c r="A31" s="2" t="s">
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1">
+      <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1">
+      <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1">
-      <c r="A32" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1">
+      <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1">
-      <c r="A33" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="13" customFormat="1">
+      <c r="A37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="7" customFormat="1">
+      <c r="A38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="4" customFormat="1">
-      <c r="A34" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="4" customFormat="1">
-      <c r="A35" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="4" customFormat="1">
-      <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="4" customFormat="1">
-      <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="4" customFormat="1">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="4" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="4" customFormat="1"/>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1"/>
   </sheetData>
+  <autoFilter ref="A1:E40">
+    <filterColumn colId="3"/>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D4" r:id="rId2" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D11" r:id="rId3" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D14" r:id="rId4" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D18" r:id="rId5" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D39" r:id="rId6" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D40" r:id="rId7" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D2" r:id="rId8" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D10" r:id="rId9" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D13" r:id="rId10" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D16" r:id="rId11" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D38" r:id="rId12" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D32" r:id="rId13" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D6" r:id="rId14" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D7" r:id="rId15" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D5" r:id="rId16" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D9" r:id="rId17" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D8" r:id="rId18" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D20:D31" r:id="rId19" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D15" r:id="rId20" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D19" r:id="rId21" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D35" r:id="rId22" tooltip="科天微数码专营店" display="http://store.taobao.com/shop/view_shop.htm?spm=a1z0d.6639537.1997196601.1.jluKDt&amp;user_number_id=1026430339"/>
+    <hyperlink ref="D34" r:id="rId23" tooltip="深圳市优信电子科技 电子元器件 电子元件 学习板 模块 电子配件" display="http://youxindianzi.taobao.com/"/>
+    <hyperlink ref="D36" r:id="rId24" tooltip="arthyly旗舰店" display="http://store.taobao.com/shop/view_shop.htm?user_number_id=1866447068"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>